--- a/IB_TickerMapping.xlsx
+++ b/IB_TickerMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unigech-my.sharepoint.com/personal/gianluca_baglini_etu_unige_ch/Documents/Desktop/UNIGE/2_PROJECT/Dash app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{34F446E2-DD0E-4AAF-8523-5F9A584D10B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5670246B-EFC1-4553-BE5A-2F1EA0B4343F}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{34F446E2-DD0E-4AAF-8523-5F9A584D10B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5890923-75F7-4CD5-BE0D-ABF80BAA94EE}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{D56A4B05-6A90-4BCD-A725-F67879B41A36}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{D56A4B05-6A90-4BCD-A725-F67879B41A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Tickers" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>TICKER</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>^GSPC</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>Goldman Sachs</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>Tesla</t>
   </si>
 </sst>
 </file>
@@ -459,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D25A4A-0622-4685-93CF-5A7A97E45368}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,43 +527,71 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -564,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69330301-A032-423B-AB6D-DE071E6B7FC5}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
